--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43033,6 +43033,41 @@
         <v>418900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>201300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43068,6 +43068,41 @@
         <v>201300</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>146800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43103,6 +43103,41 @@
         <v>146800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>571200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43138,6 +43138,41 @@
         <v>571200</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>291700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43173,6 +43173,41 @@
         <v>291700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>311200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43208,6 +43208,41 @@
         <v>311200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>162800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43243,6 +43243,41 @@
         <v>162800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>83500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43278,6 +43278,41 @@
         <v>83500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>129000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43313,6 +43313,41 @@
         <v>129000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>56400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43348,6 +43348,41 @@
         <v>56400</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>72700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43383,6 +43383,41 @@
         <v>72700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>35700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43418,6 +43418,41 @@
         <v>35700</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>44900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43453,6 +43453,76 @@
         <v>44900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>38600</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>698800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43523,6 +43523,76 @@
         <v>698800</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43593,6 +43593,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>158600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43628,6 +43628,41 @@
         <v>158600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>281100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43663,6 +43663,41 @@
         <v>281100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>302700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43698,6 +43698,41 @@
         <v>302700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>180200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43733,6 +43733,76 @@
         <v>180200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>336300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>125000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43803,6 +43803,41 @@
         <v>125000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>444900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43838,6 +43838,41 @@
         <v>444900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>414600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2380"/>
+  <dimension ref="A1:I2381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83738,6 +83738,41 @@
         <v>414600</v>
       </c>
     </row>
+    <row r="2381">
+      <c r="A2381" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2381" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2381" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2381" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F2381" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G2381" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H2381" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I2381" t="n">
+        <v>456100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2381"/>
+  <dimension ref="A1:I2382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83773,6 +83773,41 @@
         <v>456100</v>
       </c>
     </row>
+    <row r="2382">
+      <c r="A2382" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2382" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2382" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F2382" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2382" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H2382" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I2382" t="n">
+        <v>841800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2382"/>
+  <dimension ref="A1:I2383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83808,6 +83808,41 @@
         <v>841800</v>
       </c>
     </row>
+    <row r="2383">
+      <c r="A2383" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2383" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2383" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2383" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2383" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2383" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H2383" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I2383" t="n">
+        <v>463900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2383"/>
+  <dimension ref="A1:I2384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83843,6 +83843,41 @@
         <v>463900</v>
       </c>
     </row>
+    <row r="2384">
+      <c r="A2384" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2384" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2384" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2384" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F2384" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2384" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H2384" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2384" t="n">
+        <v>756100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2384"/>
+  <dimension ref="A1:I2385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83878,6 +83878,41 @@
         <v>756100</v>
       </c>
     </row>
+    <row r="2385">
+      <c r="A2385" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2385" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2385" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F2385" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G2385" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H2385" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2385" t="n">
+        <v>1779400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2385"/>
+  <dimension ref="A1:I2386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83913,6 +83913,41 @@
         <v>1779400</v>
       </c>
     </row>
+    <row r="2386">
+      <c r="A2386" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2386" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2386" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F2386" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2386" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H2386" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2386" t="n">
+        <v>521200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2386"/>
+  <dimension ref="A1:I2387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83948,6 +83948,41 @@
         <v>521200</v>
       </c>
     </row>
+    <row r="2387">
+      <c r="A2387" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2387" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2387" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F2387" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G2387" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2387" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I2387" t="n">
+        <v>1354800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2387"/>
+  <dimension ref="A1:I2388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83983,6 +83983,41 @@
         <v>1354800</v>
       </c>
     </row>
+    <row r="2388">
+      <c r="A2388" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2388" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2388" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F2388" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G2388" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2388" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I2388" t="n">
+        <v>1018100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2388"/>
+  <dimension ref="A1:I2389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84018,6 +84018,41 @@
         <v>1018100</v>
       </c>
     </row>
+    <row r="2389">
+      <c r="A2389" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2389" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2389" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F2389" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G2389" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H2389" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2389" t="n">
+        <v>1188500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2389"/>
+  <dimension ref="A1:I2390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84053,6 +84053,41 @@
         <v>1188500</v>
       </c>
     </row>
+    <row r="2390">
+      <c r="A2390" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2390" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2390" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F2390" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G2390" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H2390" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I2390" t="n">
+        <v>2211100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2390"/>
+  <dimension ref="A1:I2391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84088,6 +84088,41 @@
         <v>2211100</v>
       </c>
     </row>
+    <row r="2391">
+      <c r="A2391" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2391" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2391" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F2391" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2391" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H2391" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2391" t="n">
+        <v>576300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2391"/>
+  <dimension ref="A1:I2392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84123,6 +84123,41 @@
         <v>576300</v>
       </c>
     </row>
+    <row r="2392">
+      <c r="A2392" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2392" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2392" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F2392" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G2392" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H2392" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2392" t="n">
+        <v>511500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2392"/>
+  <dimension ref="A1:I2393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84158,6 +84158,41 @@
         <v>511500</v>
       </c>
     </row>
+    <row r="2393">
+      <c r="A2393" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2393" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2393" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2393" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F2393" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G2393" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2393" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I2393" t="n">
+        <v>2307400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2393"/>
+  <dimension ref="A1:I2394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84193,6 +84193,41 @@
         <v>2307400</v>
       </c>
     </row>
+    <row r="2394">
+      <c r="A2394" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2394" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2394" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2394" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G2394" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2394" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I2394" t="n">
+        <v>666200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2394"/>
+  <dimension ref="A1:I2395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84228,6 +84228,41 @@
         <v>666200</v>
       </c>
     </row>
+    <row r="2395">
+      <c r="A2395" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2395" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2395" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F2395" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G2395" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H2395" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I2395" t="n">
+        <v>2314000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2395"/>
+  <dimension ref="A1:I2396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84263,6 +84263,41 @@
         <v>2314000</v>
       </c>
     </row>
+    <row r="2396">
+      <c r="A2396" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2396" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2396" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2396" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2396" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2396" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I2396" t="n">
+        <v>2875900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2396"/>
+  <dimension ref="A1:I2397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84298,6 +84298,41 @@
         <v>2875900</v>
       </c>
     </row>
+    <row r="2397">
+      <c r="A2397" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2397" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2397" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2397" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F2397" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2397" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H2397" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I2397" t="n">
+        <v>4113300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2397"/>
+  <dimension ref="A1:I2398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84333,6 +84333,41 @@
         <v>4113300</v>
       </c>
     </row>
+    <row r="2398">
+      <c r="A2398" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2398" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2398" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2398" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F2398" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G2398" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H2398" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I2398" t="n">
+        <v>2473000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2398"/>
+  <dimension ref="A1:I2399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84368,6 +84368,41 @@
         <v>2473000</v>
       </c>
     </row>
+    <row r="2399">
+      <c r="A2399" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2399" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2399" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2399" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F2399" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G2399" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H2399" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I2399" t="n">
+        <v>1598400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2399"/>
+  <dimension ref="A1:I2400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84403,6 +84403,41 @@
         <v>1598400</v>
       </c>
     </row>
+    <row r="2400">
+      <c r="A2400" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2400" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2400" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2400" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F2400" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G2400" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H2400" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I2400" t="n">
+        <v>1130900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2400"/>
+  <dimension ref="A1:I2401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84438,6 +84438,41 @@
         <v>1130900</v>
       </c>
     </row>
+    <row r="2401">
+      <c r="A2401" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2401" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2401" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2401" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F2401" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G2401" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H2401" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I2401" t="n">
+        <v>792700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2401"/>
+  <dimension ref="A1:I2402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84473,6 +84473,41 @@
         <v>792700</v>
       </c>
     </row>
+    <row r="2402">
+      <c r="A2402" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2402" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2402" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2402" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F2402" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G2402" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H2402" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I2402" t="n">
+        <v>553800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2402"/>
+  <dimension ref="A1:I2403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84508,6 +84508,41 @@
         <v>553800</v>
       </c>
     </row>
+    <row r="2403">
+      <c r="A2403" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2403" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2403" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2403" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F2403" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G2403" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H2403" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I2403" t="n">
+        <v>881900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2403"/>
+  <dimension ref="A1:I2404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84543,6 +84543,41 @@
         <v>881900</v>
       </c>
     </row>
+    <row r="2404">
+      <c r="A2404" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2404" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2404" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2404" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F2404" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2404" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H2404" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I2404" t="n">
+        <v>965300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2404"/>
+  <dimension ref="A1:I2405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84578,6 +84578,41 @@
         <v>965300</v>
       </c>
     </row>
+    <row r="2405">
+      <c r="A2405" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2405" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2405" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2405" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F2405" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2405" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H2405" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2405" t="n">
+        <v>1008800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2405"/>
+  <dimension ref="A1:I2407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84613,6 +84613,76 @@
         <v>1008800</v>
       </c>
     </row>
+    <row r="2406">
+      <c r="A2406" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2406" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2406" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2406" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F2406" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G2406" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H2406" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I2406" t="n">
+        <v>3213900</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2407" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2407" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2407" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F2407" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G2407" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H2407" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I2407" t="n">
+        <v>1291500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2407"/>
+  <dimension ref="A1:I2408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84683,6 +84683,41 @@
         <v>1291500</v>
       </c>
     </row>
+    <row r="2408">
+      <c r="A2408" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2408" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2408" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2408" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F2408" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G2408" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H2408" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I2408" t="n">
+        <v>2089300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2408"/>
+  <dimension ref="A1:I2411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84718,6 +84718,111 @@
         <v>2089300</v>
       </c>
     </row>
+    <row r="2409">
+      <c r="A2409" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2409" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2409" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2409" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2409" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G2409" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H2409" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I2409" t="n">
+        <v>836900</v>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2410" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2410" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2410" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F2410" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G2410" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H2410" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I2410" t="n">
+        <v>1105300</v>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2411" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2411" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2411" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F2411" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G2411" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H2411" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I2411" t="n">
+        <v>397700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2411"/>
+  <dimension ref="A1:I2412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84823,6 +84823,41 @@
         <v>397700</v>
       </c>
     </row>
+    <row r="2412">
+      <c r="A2412" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2412" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2412" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2412" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F2412" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G2412" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H2412" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I2412" t="n">
+        <v>410800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2412"/>
+  <dimension ref="A1:I2413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84858,6 +84858,41 @@
         <v>410800</v>
       </c>
     </row>
+    <row r="2413">
+      <c r="A2413" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2413" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2413" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2413" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F2413" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2413" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H2413" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I2413" t="n">
+        <v>1097500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5171.xlsx
+++ b/data/5171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2413"/>
+  <dimension ref="A1:I2416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84893,6 +84893,111 @@
         <v>1097500</v>
       </c>
     </row>
+    <row r="2414">
+      <c r="A2414" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2414" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2414" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2414" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F2414" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2414" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2414" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I2414" t="n">
+        <v>1170000</v>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2415" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2415" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2415" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F2415" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G2415" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H2415" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I2415" t="n">
+        <v>622800</v>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2416" t="inlineStr">
+        <is>
+          <t>5171</t>
+        </is>
+      </c>
+      <c r="D2416" t="inlineStr">
+        <is>
+          <t>KIMLUN</t>
+        </is>
+      </c>
+      <c r="E2416" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F2416" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G2416" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H2416" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I2416" t="n">
+        <v>2168000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
